--- a/Results_and_Plots/Results.xlsx
+++ b/Results_and_Plots/Results.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neeshukl/Personal/Work/Germany_Work/snippet-optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neeshukl/Personal/Work/Germany_Work/snippet-optimization/Results_and_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Old_evaluation" sheetId="3" r:id="rId1"/>
@@ -545,11 +545,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1054622368"/>
-        <c:axId val="-1054620048"/>
+        <c:axId val="-1340059792"/>
+        <c:axId val="-1340057040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1054622368"/>
+        <c:axId val="-1340059792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1054620048"/>
+        <c:crossAx val="-1340057040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -600,7 +600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1054620048"/>
+        <c:axId val="-1340057040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1054622368"/>
+        <c:crossAx val="-1340059792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -694,6 +694,282 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Block!$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Block!$B$41:$B$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>TFIDF</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Doc2Vec_TitleAPI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Doc2Vec_TitleBodyAPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Block!$C$41:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0319148936170212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0326747720364741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1339906688"/>
+        <c:axId val="-1339903936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1339906688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1339903936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1339903936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1339906688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -877,11 +1153,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1084429952"/>
-        <c:axId val="-1084427632"/>
+        <c:axId val="-1340020176"/>
+        <c:axId val="-1340017184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1084429952"/>
+        <c:axId val="-1340020176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +1200,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1084427632"/>
+        <c:crossAx val="-1340017184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -932,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1084427632"/>
+        <c:axId val="-1340017184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1084429952"/>
+        <c:crossAx val="-1340020176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1274,11 +1550,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1055297792"/>
-        <c:axId val="-1055295472"/>
+        <c:axId val="-1342141664"/>
+        <c:axId val="-1342139456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1055297792"/>
+        <c:axId val="-1342141664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,7 +1597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055295472"/>
+        <c:crossAx val="-1342139456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1329,7 +1605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1055295472"/>
+        <c:axId val="-1342139456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1055297792"/>
+        <c:crossAx val="-1342141664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1953,11 +2229,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1084551968"/>
-        <c:axId val="-1084549920"/>
+        <c:axId val="-1339981488"/>
+        <c:axId val="-1339978736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1084551968"/>
+        <c:axId val="-1339981488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1084549920"/>
+        <c:crossAx val="-1339978736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2008,7 +2284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1084549920"/>
+        <c:axId val="-1339978736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2059,7 +2335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1084551968"/>
+        <c:crossAx val="-1339981488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2464,11 +2740,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1056508432"/>
-        <c:axId val="-1083076480"/>
+        <c:axId val="-1339945024"/>
+        <c:axId val="-1339942272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1056508432"/>
+        <c:axId val="-1339945024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1083076480"/>
+        <c:crossAx val="-1339942272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2519,7 +2795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1083076480"/>
+        <c:axId val="-1339942272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2570,7 +2846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1056508432"/>
+        <c:crossAx val="-1339945024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2666,6 +2942,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3060,11 +3337,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1056319904"/>
-        <c:axId val="-1082264400"/>
+        <c:axId val="-1342113536"/>
+        <c:axId val="-1342110272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1056319904"/>
+        <c:axId val="-1342113536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +3384,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1082264400"/>
+        <c:crossAx val="-1342110272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3115,7 +3392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1082264400"/>
+        <c:axId val="-1342110272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3165,7 +3442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1056319904"/>
+        <c:crossAx val="-1342113536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3179,6 +3456,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3259,19 +3537,49 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Block!$C$10</c:f>
+              <c:f>New_Evaluation!$C$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3281,74 +3589,283 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Block!$B$11:$B$17</c:f>
+              <c:f>New_Evaluation!$B$77:$B$87</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>M1_1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>H1</c:v>
+                  <c:v>M1_0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>H2</c:v>
+                  <c:v>M1_0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>H1H2</c:v>
+                  <c:v>M1_0.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>M1_TF_IDF</c:v>
+                  <c:v>M1_0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>M1_Doc2VecTitleBody</c:v>
+                  <c:v>M1_0.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>M1_Doc2VecTitle</c:v>
+                  <c:v>M1_0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M1_0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M1_-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M1_-0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M1_-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Block!$C$11:$C$17</c:f>
+              <c:f>New_Evaluation!$C$77:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.0084811102544333</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.015625</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00820232399179767</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0222799851466765</c:v>
+                  <c:v>0.823529411764705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0319148936170212</c:v>
+                  <c:v>0.663366336633663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0326747720364741</c:v>
+                  <c:v>0.677215189873417</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0357142857142857</c:v>
+                  <c:v>0.673170731707317</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.655737704918032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.657232704402515</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.657232704402515</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.657232704402515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>New_Evaluation!$F$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>New_Evaluation!$B$77:$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>M1_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M1_0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M1_0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1_0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M1_0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M1_0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M1_0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M1_0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M1_-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M1_-0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M1_-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>New_Evaluation!$F$77:$F$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="3">
+                  <c:v>0.779816513761467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.704433497536945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68695652173913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69921875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.679577464788732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.657232704402515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>New_Evaluation!$I$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>New_Evaluation!$B$77:$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>M1_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M1_0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M1_0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1_0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M1_0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M1_0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M1_0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M1_0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M1_-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M1_-0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M1_-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>New_Evaluation!$I$77:$I$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="6">
+                  <c:v>0.670411985018726</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65814696485623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3358,13 +3875,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1023130224"/>
-        <c:axId val="-1023127904"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="-1320798768"/>
+        <c:axId val="-1320796448"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-1023130224"/>
+        <c:axId val="-1320798768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,7 +3923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023127904"/>
+        <c:crossAx val="-1320796448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3415,7 +3931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1023127904"/>
+        <c:axId val="-1320796448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3465,7 +3981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1023130224"/>
+        <c:crossAx val="-1320798768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3478,7 +3994,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3560,246 +4076,96 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Block!$C$23</c:f>
+              <c:f>Block!$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precision_TFIDF</c:v>
+                  <c:v>Precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Block!$B$24:$B$34</c:f>
+              <c:f>Block!$B$11:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>M1_1</c:v>
+                  <c:v>Baseline</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>M1_0.75</c:v>
+                  <c:v>H1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>M1_0.5</c:v>
+                  <c:v>H2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>M1_0.35</c:v>
+                  <c:v>H1H2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>M1_0.2</c:v>
+                  <c:v>M1_TF_IDF</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>M1_0.15</c:v>
+                  <c:v>M1_Doc2VecTitleBody</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>M1_0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>M1_0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>M1_-0.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>M1_-0.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>M1_-1</c:v>
+                  <c:v>M1_Doc2VecTitle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Block!$C$24:$C$34</c:f>
+              <c:f>Block!$C$11:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.0084811102544333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000759878419452887</c:v>
+                  <c:v>0.015625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.00227963525835866</c:v>
+                  <c:v>0.00820232399179767</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00531914893617021</c:v>
+                  <c:v>0.0222799851466765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0235562310030395</c:v>
+                  <c:v>0.0319148936170212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0205167173252279</c:v>
+                  <c:v>0.0326747720364741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0212765957446808</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0319148936170212</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0326747720364741</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0326747720364741</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0326747720364741</c:v>
+                  <c:v>0.0357142857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Block!$D$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision_Doc2Vec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Block!$B$24:$B$34</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>M1_1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>M1_0.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>M1_0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>M1_0.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>M1_0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>M1_0.15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>M1_0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>M1_0.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>M1_-0.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>M1_-0.35</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>M1_-1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Block!$D$24:$D$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="4">
-                  <c:v>0.0303951367781155</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0311550151975683</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0341945288753799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0326747720364741</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3809,12 +4175,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-1084985232"/>
-        <c:axId val="-1084983184"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1526805328"/>
+        <c:axId val="-1526802576"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="-1084985232"/>
+        <c:axId val="-1526805328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +4224,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1084983184"/>
+        <c:crossAx val="-1526802576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3865,7 +4232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1084983184"/>
+        <c:axId val="-1526802576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +4282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1084985232"/>
+        <c:crossAx val="-1526805328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3928,7 +4295,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4044,69 +4411,212 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Block!$C$40</c:f>
+              <c:f>Block!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Precision</c:v>
+                  <c:v>Precision_TFIDF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Block!$B$41:$B$43</c:f>
+              <c:f>Block!$B$24:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>TFIDF</c:v>
+                  <c:v>M1_1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Doc2Vec_TitleAPI</c:v>
+                  <c:v>M1_0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Doc2Vec_TitleBodyAPI</c:v>
+                  <c:v>M1_0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1_0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M1_0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M1_0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M1_0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M1_0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M1_-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M1_-0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M1_-1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Block!$C$41:$C$43</c:f>
+              <c:f>Block!$C$24:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000759878419452887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00227963525835866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00531914893617021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0235562310030395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0205167173252279</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0212765957446808</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.0319148936170212</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0357142857142857</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>0.0326747720364741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0326747720364741</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.0326747720364741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Block!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision_Doc2Vec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Block!$B$24:$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>M1_1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M1_0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M1_0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1_0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M1_0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M1_0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M1_0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M1_0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M1_-0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M1_-0.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M1_-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Block!$D$24:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="4">
+                  <c:v>0.0303951367781155</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0311550151975683</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0341945288753799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0357142857142857</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0326747720364741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4116,13 +4626,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="-1084501840"/>
-        <c:axId val="-1084499520"/>
-      </c:barChart>
+        <c:smooth val="0"/>
+        <c:axId val="-1339925568"/>
+        <c:axId val="-1339923248"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="-1084501840"/>
+        <c:axId val="-1339925568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4165,7 +4674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1084499520"/>
+        <c:crossAx val="-1339923248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4173,7 +4682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1084499520"/>
+        <c:axId val="-1339923248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4193,7 +4702,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4224,7 +4732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1084501840"/>
+        <c:crossAx val="-1339925568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4236,6 +4744,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4274,6 +4814,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5136,8 +5716,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5245,11 +5825,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5260,11 +5835,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5296,9 +5866,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5652,8 +6219,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5761,6 +6328,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5771,6 +6343,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5802,6 +6379,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6155,7 +6735,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6658,7 +7238,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7161,8 +7741,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7270,11 +7850,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7285,11 +7860,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7321,9 +7891,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7677,8 +8244,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7786,6 +8353,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7796,6 +8368,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7827,6 +8404,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8180,7 +8760,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8696,7 +9276,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8846,6 +9426,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9385,6 +10481,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9981,8 +11107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10449,7 +11575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:C17"/>
     </sheetView>
   </sheetViews>
